--- a/DataSets/electionresults/kerala/TLA_Data.xlsx
+++ b/DataSets/electionresults/kerala/TLA_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\JustLearn\git_justLearn\DataSets\electionresults\kerala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{920B7134-D610-4AF6-A60D-47E98D60ABBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D97D4B-1554-4EAA-8BC6-697758393E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11369" xr2:uid="{FC33603A-84D3-4202-8C67-C830F519E12A}"/>
   </bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>UDF</t>
   </si>
   <si>
     <t>BJP</t>
-  </si>
-  <si>
-    <t>BootN#</t>
   </si>
   <si>
     <t>LDF</t>
@@ -76,6 +73,12 @@
   <si>
     <t>Yearly Vote Count Variation: 
 This is calculated as a whole for an year as well as for each party per year</t>
+  </si>
+  <si>
+    <t>PARTY</t>
+  </si>
+  <si>
+    <t>BOOTH_NO</t>
   </si>
 </sst>
 </file>
@@ -135,11 +138,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,12 +460,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A197D4-45BD-4933-A956-846B9C227D04}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
@@ -472,23 +476,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>2011</v>
@@ -3458,46 +3464,46 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">

--- a/DataSets/electionresults/kerala/TLA_Data.xlsx
+++ b/DataSets/electionresults/kerala/TLA_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\JustLearn\git_justLearn\DataSets\electionresults\kerala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D97D4B-1554-4EAA-8BC6-697758393E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E3A972-8B92-44F2-A811-7534DDC58090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11369" xr2:uid="{FC33603A-84D3-4202-8C67-C830F519E12A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>UDF</t>
   </si>
@@ -73,9 +73,6 @@
   <si>
     <t>Yearly Vote Count Variation: 
 This is calculated as a whole for an year as well as for each party per year</t>
-  </si>
-  <si>
-    <t>PARTY</t>
   </si>
   <si>
     <t>BOOTH_NO</t>
@@ -458,27 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A197D4-45BD-4933-A956-846B9C227D04}">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -492,9 +481,9 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>2011</v>
@@ -515,7 +504,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -538,7 +527,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -560,9 +549,8 @@
       <c r="G4" s="2">
         <v>459</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -585,7 +573,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -608,7 +596,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -631,7 +619,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -654,7 +642,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -677,7 +665,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -700,7 +688,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -723,7 +711,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -746,7 +734,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -769,7 +757,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -792,7 +780,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -815,7 +803,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
